--- a/medicine/Enfance/Marion_Fayolle/Marion_Fayolle.xlsx
+++ b/medicine/Enfance/Marion_Fayolle/Marion_Fayolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marion Fayolle, née en mai 1988, est une dessinatrice de presse, illustratrice, autrice de bande dessinée et romancière française.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de l'Ardèche, Marion Fayolle étudie au sein de la section illustration de l’École supérieure des arts décoratifs de Strasbourg entre 2006 et 2011. En 2009, elle crée la revue Nyctalope aux côtés de ses camarades Simon Roussin et Matthias Malingrëy. L’illustratrice collabore avec de grands titres de presse internationaux, tels que Le Monde Magazine, XXI, Télérama, Le 1, The New Yorker ou encore The New York Times[1],[2],[3]. Depuis 2012, ses livres sont publiés aux éditions Magnani.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de l'Ardèche, Marion Fayolle étudie au sein de la section illustration de l’École supérieure des arts décoratifs de Strasbourg entre 2006 et 2011. En 2009, elle crée la revue Nyctalope aux côtés de ses camarades Simon Roussin et Matthias Malingrëy. L’illustratrice collabore avec de grands titres de presse internationaux, tels que Le Monde Magazine, XXI, Télérama, Le 1, The New Yorker ou encore The New York Times. Depuis 2012, ses livres sont publiés aux éditions Magnani.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, Marion Fayolle publie son projet d'étude, L'homme en pièces, un recueil d'histoires sans paroles, des scènes aux ambiances décalées et poétiques[4]. En 2013, La Tendresse des pierres raconte la maladie et la mort de son père. En 2014, avec Les Coquins, la dessinatrice aborde « les rapports entre hommes et femmes à travers des jeux d’associations et des métamorphoses tantôt gourmandes, tantôt sportives, sinon animales »[5],[6]. En 2018, Marion Fayolle édite une comédie musicale sous forme de bande dessinée Les Amours suspendues[7]. L'autrice aborde ici tous les aspects de la fidélité dans le couple[8],[9],[10]. En 2020, son livre Les Petits questionne la parentalité.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, Marion Fayolle publie son projet d'étude, L'homme en pièces, un recueil d'histoires sans paroles, des scènes aux ambiances décalées et poétiques. En 2013, La Tendresse des pierres raconte la maladie et la mort de son père. En 2014, avec Les Coquins, la dessinatrice aborde « les rapports entre hommes et femmes à travers des jeux d’associations et des métamorphoses tantôt gourmandes, tantôt sportives, sinon animales »,. En 2018, Marion Fayolle édite une comédie musicale sous forme de bande dessinée Les Amours suspendues. L'autrice aborde ici tous les aspects de la fidélité dans le couple. En 2020, son livre Les Petits questionne la parentalité.
 Avec la complicité du comédien Louis Zampa, elle adapte son univers à la scène : Des gens dans les gens est présenté pour la première fois en 2022 à la Maison de la Poésie, à Paris.
 En janvier 2024, paraît son premier roman Du même bois dans la collection Blanche de Gallimard.
 </t>
@@ -575,10 +591,12 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marion Fayolle est trois fois lauréate du concours Jeunes Talents lors du Festival International de la Bande Dessinée d'Angoulême. En 2014, son quatrième ouvrage La Tendresse des pierres fait partie de la sélection officielle du festival[11]. En 2018, Marion Fayolle est lauréate du prix spécial du jury du Festival d'Angoulême avec Les Amours suspendues[1],[12]. En 2024, elle fait partie des  cinq finalistes du Prix des Libraires 2024[13].
-En 2024, elle est membre du grand jury de la 51e édition du Festival d'Angoulême[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marion Fayolle est trois fois lauréate du concours Jeunes Talents lors du Festival International de la Bande Dessinée d'Angoulême. En 2014, son quatrième ouvrage La Tendresse des pierres fait partie de la sélection officielle du festival. En 2018, Marion Fayolle est lauréate du prix spécial du jury du Festival d'Angoulême avec Les Amours suspendues,. En 2024, elle fait partie des  cinq finalistes du Prix des Libraires 2024.
+En 2024, elle est membre du grand jury de la 51e édition du Festival d'Angoulême.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2018 : Prix spécial du jury du festival d'Angoulême pour Les Amours suspendues[15]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 : Prix spécial du jury du festival d'Angoulême pour Les Amours suspendues</t>
         </is>
       </c>
     </row>
@@ -637,13 +657,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Homme en pièces, Paris, Éditions Michel Lagarde, 2011, 64 p. (ISBN 978-2-916421-27-8)
 Nappe comme Neige, Genève/Le Kremlin-Bicêtre, Éditions Notari, 2012, 64 p. (ISBN 978-2-940408-35-1)
-Le Tableau, Paris, Éditions Magnani, 2012, 48 p. (ISBN 978-2-9539817-3-5)[16]
-La Tendresse des pierres, Paris, Éditions Magnani, 2013, 144 p. (ISBN 978-2-9539817-9-7)[17]
-Les Coquins, Paris, Éditions Magnani, 2014, 64 p. (ISBN 979-10-92058-04-8)[18]
+Le Tableau, Paris, Éditions Magnani, 2012, 48 p. (ISBN 978-2-9539817-3-5)
+La Tendresse des pierres, Paris, Éditions Magnani, 2013, 144 p. (ISBN 978-2-9539817-9-7)
+Les Coquins, Paris, Éditions Magnani, 2014, 64 p. (ISBN 979-10-92058-04-8)
 Les Amours suspendues, Paris, Éditions Magnani, 2017, 256 p. (ISBN 978-1-0920-5829-2 et 1-0920-5829-X)
 Les faux Pas, Paris, Éditions Magnani, 2019, 144 p. (ISBN 1092058419)
 Les Petits, Paris, Éditions Magnani, 2020, 96 p. (ISBN 1092058494)
